--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\workspace-temma\Programming-exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62131C98-4ED9-4B6C-9AB6-51C46395366B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA6B037-48EE-4EC6-8C80-75D1CA876BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="21705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="58">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -460,6 +460,45 @@
   <si>
     <t>regist.phpに遷移する</t>
   </si>
+  <si>
+    <t>処理と見た目の両立、UXのためerror.phpを作成</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リョウリツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「delete_flag」の欠如、郵便番号の頭0落ち</t>
+    <rPh sb="14" eb="16">
+      <t>ケツジョ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -714,6 +753,9 @@
     <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -722,9 +764,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4205,7 +4244,7 @@
   <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C27:C28"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -4235,13 +4274,13 @@
       <c r="A4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -5496,8 +5535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -5527,13 +5566,13 @@
       <c r="A4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -5571,7 +5610,7 @@
       <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="28" t="s">
@@ -6393,7 +6432,7 @@
   <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -6423,13 +6462,13 @@
       <c r="A4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -7840,8 +7879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F57B83C-522B-41CC-BF95-F886B8DBAF67}">
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -7871,13 +7910,13 @@
       <c r="A4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -7952,9 +7991,11 @@
         <v>45183</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="29"/>
+        <v>56</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="25">
@@ -8002,7 +8043,9 @@
       <c r="G10" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="29"/>
+      <c r="H10" s="29" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="18">

--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\workspace-temma\Programming-exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA6B037-48EE-4EC6-8C80-75D1CA876BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6332ACBA-F1DA-49AE-BFE2-90FC8172454A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="21705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="21705" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index.php" sheetId="6" r:id="rId1"/>
@@ -4243,8 +4243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6ADE342-0B5A-4ED1-A114-00331DB4481C}">
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -5535,8 +5535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -6431,8 +6431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1188509A-4C8B-4228-99D9-FAC7657AD336}">
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -7879,7 +7879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F57B83C-522B-41CC-BF95-F886B8DBAF67}">
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
